--- a/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 211001 to 211031.xlsx
+++ b/Rain Gauge/Tagoloan/Rain Gauge 2/Raw/TAG Rain Gauge1 211001 to 211031.xlsx
@@ -1,2037 +1,2018 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main GDrive\Programming\Gthub Repo\New First Gen\First_Gen_Tagoloan_CDO\Rain Gauge\Tagoloan\Rain Gauge 2\Raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77A2E1-BE14-454F-A7D3-9CC60232353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId3"/>
+    <sheet name="Station Data Sensor Id 1546480" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="671">
-  <si>
-    <t xml:space="preserve">Station Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGEN Tagoloan Gauge Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DailyRain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1546480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rain Gauge 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/4/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/5/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/6/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/7/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/8/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/9/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/10/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/11/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/16/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/18/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/19/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/20/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/22/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/23/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/24/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/25/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/26/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 8:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 9:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 10:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 11:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 12:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 1:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 2:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 3:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 4:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 5:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 6:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 7:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 8:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 9:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 10:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2021 11:59:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 12:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 1:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 2:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 3:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 4:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 5:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 6:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 7:59:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/2021 8:59:59 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="662">
+  <si>
+    <t>Station Name</t>
+  </si>
+  <si>
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Sensor Value</t>
+  </si>
+  <si>
+    <t>Sensor ID</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Sensor Label</t>
+  </si>
+  <si>
+    <t>FGEN Tagoloan Gauge Station</t>
+  </si>
+  <si>
+    <t>DailyRain</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>1546480</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>10/1/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>Rain Gauge 1</t>
+  </si>
+  <si>
+    <t>10/1/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/1/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10/1/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/1/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/2/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>10/2/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>10/2/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.176</t>
+  </si>
+  <si>
+    <t>10/2/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.184</t>
+  </si>
+  <si>
+    <t>10/2/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/2/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/3/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/3/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/3/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/3/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>10/3/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>10/3/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>10/3/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>10/3/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>10/3/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>10/3/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>10/3/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/3/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/3/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/4/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/4/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/4/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/4/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>10/4/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/4/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>10/4/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>10/4/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>10/4/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>10/4/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>10/4/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>10/4/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/4/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>10/5/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>10/5/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>10/5/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/5/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>10/5/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>10/5/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/5/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/6/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>10/6/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>10/6/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/6/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>10/7/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/7/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/7/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/8/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>10/8/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>10/8/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>10/8/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>10/8/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/8/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>10/8/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/9/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>10/9/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>10/9/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>10/9/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/9/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/9/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>10/9/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>10/9/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>10/9/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/9/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>10/9/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/9/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>10/9/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/9/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>10/9/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>10/10/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>10/10/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/10/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/10/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/11/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/16/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/16/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/17/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/17/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/17/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/17/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>10/17/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/17/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/17/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/18/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>10/18/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/18/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/19/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/19/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/20/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/20/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>10/21/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/21/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/21/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/22/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/22/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/23/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>10/23/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>10/23/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>10/23/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/23/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/24/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/24/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/25/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/25/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/26/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>10/26/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>10/26/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>10/26/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/26/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/27/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>10/27/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>10/27/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>1.968</t>
+  </si>
+  <si>
+    <t>10/27/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>2.136</t>
+  </si>
+  <si>
+    <t>10/27/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>2.144</t>
+  </si>
+  <si>
+    <t>10/27/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/27/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/28/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/28/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/29/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/29/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/30/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/30/2021 11:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 12:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 1:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 2:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 3:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 4:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 5:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 6:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 7:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 8:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 9:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 10:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 11:59:59 AM</t>
+  </si>
+  <si>
+    <t>10/31/2021 12:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 1:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 2:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 3:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 4:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 5:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 6:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 7:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 8:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 9:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 10:59:59 PM</t>
+  </si>
+  <si>
+    <t>10/31/2021 11:59:59 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2045,7 +2026,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2058,23 +2039,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G593"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="M583" sqref="M583"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2258,7 +2549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2327,7 +2618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2350,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2419,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2465,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2649,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +3032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2787,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2810,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +3124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2856,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +3170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +3216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +3239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2971,7 +3262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +3285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3017,7 +3308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3040,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3063,7 +3354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3086,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +3400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3132,7 +3423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3178,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +3607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3339,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3431,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +3745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3500,7 +3791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3546,7 +3837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3569,7 +3860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3592,7 +3883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3615,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3638,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3661,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3707,7 +3998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3730,7 +4021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +4044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3776,7 +4067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +4090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +4159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3891,7 +4182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3914,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3983,7 +4274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -4029,7 +4320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -4052,7 +4343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +4366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -4121,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -4144,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4167,7 +4458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -4213,7 +4504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -4236,7 +4527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4259,7 +4550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4282,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4305,7 +4596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4374,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4397,7 +4688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4420,7 +4711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4443,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4466,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4558,7 +4849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4581,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4604,7 +4895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4627,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +4964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4696,7 +4987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4719,7 +5010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4742,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4765,7 +5056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4788,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4811,7 +5102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +5125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4857,7 +5148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4880,7 +5171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4903,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4926,7 +5217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4949,7 +5240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4995,7 +5286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -5018,7 +5309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -5064,7 +5355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -5087,7 +5378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -5110,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -5133,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -5156,7 +5447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -5179,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -5202,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -5225,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5271,7 +5562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -5294,7 +5585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -5317,7 +5608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -5340,7 +5631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -5363,7 +5654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -5386,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -5409,7 +5700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -5432,7 +5723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5478,7 +5769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -5501,7 +5792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -5524,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -5547,7 +5838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -5570,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -5593,7 +5884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -5616,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -5685,7 +5976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -5708,7 +5999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +6022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -5754,7 +6045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -5777,7 +6068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -5800,7 +6091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -5823,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5846,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -5869,7 +6160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5892,7 +6183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5915,7 +6206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5938,7 +6229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5961,7 +6252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +6275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -6007,7 +6298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -6030,7 +6321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -6053,7 +6344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -6076,7 +6367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -6099,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -6122,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -6145,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -6168,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -6191,7 +6482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -6214,7 +6505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -6237,7 +6528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -6260,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -6283,7 +6574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -6306,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -6329,7 +6620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -6352,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -6375,7 +6666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -6398,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -6421,7 +6712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -6467,7 +6758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6490,7 +6781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -6513,7 +6804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -6559,7 +6850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -6582,7 +6873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -6605,7 +6896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -6628,7 +6919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -6651,7 +6942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -6674,7 +6965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -6697,7 +6988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -6720,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -6743,7 +7034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -6766,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +7080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -6812,7 +7103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -6835,7 +7126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -6858,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -6881,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -6904,7 +7195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -6927,7 +7218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -6950,7 +7241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -6973,7 +7264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -6996,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -7019,7 +7310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -7042,7 +7333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -7065,7 +7356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -7088,7 +7379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -7111,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -7134,7 +7425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -7157,7 +7448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -7180,7 +7471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -7203,7 +7494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -7226,7 +7517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -7249,7 +7540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -7272,7 +7563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -7295,7 +7586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -7318,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -7341,7 +7632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -7364,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -7387,7 +7678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -7410,7 +7701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -7433,7 +7724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -7456,7 +7747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -7479,7 +7770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -7502,7 +7793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -7525,7 +7816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -7548,7 +7839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -7571,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -7594,7 +7885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -7640,7 +7931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -7663,7 +7954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -7686,7 +7977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -7709,7 +8000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -7732,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -7755,7 +8046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -7778,7 +8069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -7801,7 +8092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -7824,7 +8115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -7847,7 +8138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -7870,7 +8161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -7893,7 +8184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -7916,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -7939,7 +8230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -7962,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -7985,7 +8276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -8008,7 +8299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -8031,7 +8322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -8054,7 +8345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -8100,7 +8391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -8123,7 +8414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -8146,7 +8437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -8169,7 +8460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -8192,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -8215,7 +8506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -8238,7 +8529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -8261,7 +8552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -8284,7 +8575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -8307,7 +8598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -8330,7 +8621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -8353,7 +8644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -8376,7 +8667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -8399,7 +8690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -8422,7 +8713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -8445,7 +8736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -8468,7 +8759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -8491,7 +8782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -8514,7 +8805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -8537,7 +8828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -8560,7 +8851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -8583,7 +8874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -8606,7 +8897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -8629,7 +8920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -8652,7 +8943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -8675,7 +8966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -8698,7 +8989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -8721,7 +9012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -8744,7 +9035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -8767,7 +9058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +9081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -8813,7 +9104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -8836,7 +9127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -8859,7 +9150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -8882,7 +9173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -8905,7 +9196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -8928,7 +9219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -8951,7 +9242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -8974,7 +9265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -8997,7 +9288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -9020,7 +9311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -9043,7 +9334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -9066,7 +9357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -9089,7 +9380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -9112,7 +9403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -9135,7 +9426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -9158,7 +9449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -9181,7 +9472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -9204,7 +9495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -9227,7 +9518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -9250,7 +9541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -9273,7 +9564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -9296,7 +9587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -9319,7 +9610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -9342,7 +9633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -9365,7 +9656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -9388,7 +9679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -9411,7 +9702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -9434,7 +9725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -9457,7 +9748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -9480,7 +9771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -9503,7 +9794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -9526,7 +9817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -9549,7 +9840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -9572,7 +9863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -9595,7 +9886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -9618,7 +9909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -9641,7 +9932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -9664,7 +9955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -9687,7 +9978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -9710,7 +10001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -9733,7 +10024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -9756,7 +10047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -9779,7 +10070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -9802,7 +10093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -9825,7 +10116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -9848,7 +10139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -9871,7 +10162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -9894,7 +10185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -9917,7 +10208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -9940,7 +10231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -9963,7 +10254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -9986,7 +10277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -10009,7 +10300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -10032,7 +10323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -10055,7 +10346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -10078,7 +10369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -10101,7 +10392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -10124,7 +10415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -10147,7 +10438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -10170,7 +10461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -10193,7 +10484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -10216,7 +10507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -10239,7 +10530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -10262,7 +10553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -10285,7 +10576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -10308,7 +10599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -10331,7 +10622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -10354,7 +10645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -10377,7 +10668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -10400,7 +10691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -10423,7 +10714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -10446,7 +10737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -10469,7 +10760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -10492,7 +10783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -10515,7 +10806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -10538,7 +10829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -10561,7 +10852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -10584,7 +10875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -10607,7 +10898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -10630,7 +10921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -10653,7 +10944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -10676,7 +10967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -10699,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -10722,7 +11013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -10745,7 +11036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -10768,7 +11059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -10791,7 +11082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -10814,7 +11105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -10837,7 +11128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -10860,7 +11151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -10883,7 +11174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -10906,7 +11197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -10929,7 +11220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -10952,7 +11243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -10975,7 +11266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -10998,7 +11289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -11021,7 +11312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -11067,7 +11358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -11090,7 +11381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -11113,7 +11404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -11136,7 +11427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -11159,7 +11450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -11182,7 +11473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -11205,7 +11496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -11228,7 +11519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -11251,7 +11542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -11274,7 +11565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -11297,7 +11588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -11320,7 +11611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -11343,7 +11634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -11366,7 +11657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -11389,7 +11680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -11412,7 +11703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -11435,7 +11726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -11458,7 +11749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -11481,7 +11772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -11504,7 +11795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -11527,7 +11818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -11550,7 +11841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -11573,7 +11864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -11596,7 +11887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -11619,7 +11910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -11642,7 +11933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -11665,7 +11956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -11688,7 +11979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -11711,7 +12002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -11734,7 +12025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -11757,7 +12048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -11780,7 +12071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -11803,7 +12094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -11826,7 +12117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -11849,7 +12140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -11872,7 +12163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -11895,7 +12186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -11918,7 +12209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -11941,7 +12232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -11964,7 +12255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -11987,7 +12278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -12010,7 +12301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -12033,7 +12324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -12056,7 +12347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -12079,7 +12370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -12102,7 +12393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -12125,7 +12416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -12148,7 +12439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -12171,7 +12462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -12194,7 +12485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -12217,7 +12508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -12240,7 +12531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -12263,7 +12554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -12286,7 +12577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -12309,7 +12600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -12332,7 +12623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -12355,7 +12646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -12378,7 +12669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -12401,7 +12692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -12424,7 +12715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -12447,7 +12738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -12470,7 +12761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -12493,7 +12784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -12516,7 +12807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -12539,7 +12830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -12562,7 +12853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -12585,7 +12876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -12608,7 +12899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -12631,7 +12922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -12654,7 +12945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -12677,7 +12968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -12700,7 +12991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -12723,7 +13014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -12746,7 +13037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -12769,7 +13060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -12792,7 +13083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -12815,7 +13106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -12838,7 +13129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -12861,7 +13152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -12884,7 +13175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -12907,7 +13198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -12930,7 +13221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -12953,7 +13244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -12976,7 +13267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -12999,7 +13290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -13022,7 +13313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -13045,7 +13336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -13068,7 +13359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -13091,7 +13382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -13114,7 +13405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -13137,7 +13428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -13160,7 +13451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -13183,7 +13474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -13206,7 +13497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -13229,7 +13520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -13252,7 +13543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -13275,7 +13566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -13298,7 +13589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -13321,7 +13612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -13344,7 +13635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -13367,7 +13658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -13390,7 +13681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -13413,7 +13704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -13436,7 +13727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -13459,7 +13750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -13482,7 +13773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -13505,7 +13796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -13528,7 +13819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -13551,7 +13842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -13574,7 +13865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>7</v>
       </c>
@@ -13597,7 +13888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -13620,7 +13911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -13643,7 +13934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -13666,7 +13957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -13689,7 +13980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -13712,7 +14003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -13735,7 +14026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -13758,7 +14049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -13781,7 +14072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -13804,7 +14095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -13827,7 +14118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -13850,7 +14141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -13873,7 +14164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -13896,7 +14187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -13919,7 +14210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -13942,7 +14233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -13965,7 +14256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -13988,7 +14279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -14011,7 +14302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -14034,7 +14325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -14057,7 +14348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -14080,7 +14371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -14103,7 +14394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -14126,7 +14417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -14149,7 +14440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -14172,7 +14463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -14195,7 +14486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -14218,7 +14509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -14241,7 +14532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -14264,7 +14555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -14287,7 +14578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -14310,7 +14601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -14333,7 +14624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -14356,7 +14647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -14379,7 +14670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -14402,7 +14693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -14425,7 +14716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -14448,7 +14739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -14471,7 +14762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -14494,7 +14785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -14517,7 +14808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -14540,7 +14831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -14563,7 +14854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -14586,7 +14877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -14609,7 +14900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -14632,7 +14923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -14655,7 +14946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -14678,7 +14969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -14701,7 +14992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -14724,7 +15015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +15038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -14770,7 +15061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -14793,7 +15084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -14816,7 +15107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -14839,7 +15130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -14862,7 +15153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -14885,7 +15176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>7</v>
       </c>
@@ -14908,7 +15199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -14931,7 +15222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -14954,7 +15245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -14977,7 +15268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -15000,7 +15291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -15023,7 +15314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>7</v>
       </c>
@@ -15046,7 +15337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -15069,7 +15360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -15092,7 +15383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -15115,7 +15406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -15138,7 +15429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -15161,7 +15452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -15184,7 +15475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -15207,7 +15498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>7</v>
       </c>
@@ -15230,7 +15521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -15253,7 +15544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -15276,7 +15567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -15299,7 +15590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -15322,7 +15613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -15345,7 +15636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -15368,7 +15659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -15391,7 +15682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -15414,7 +15705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>7</v>
       </c>
@@ -15437,7 +15728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -15460,7 +15751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -15483,7 +15774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -15506,7 +15797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -15529,7 +15820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -15552,7 +15843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -15575,7 +15866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -15598,7 +15889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -15621,7 +15912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -15644,7 +15935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -15667,7 +15958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -15690,7 +15981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>7</v>
       </c>
@@ -15710,213 +16001,6 @@
         <v>661</v>
       </c>
       <c r="G593" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="s">
-        <v>7</v>
-      </c>
-      <c r="B594" t="s">
-        <v>8</v>
-      </c>
-      <c r="C594" t="s">
-        <v>83</v>
-      </c>
-      <c r="D594" t="s">
-        <v>10</v>
-      </c>
-      <c r="E594" t="s">
-        <v>11</v>
-      </c>
-      <c r="F594" t="s">
-        <v>662</v>
-      </c>
-      <c r="G594" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="s">
-        <v>7</v>
-      </c>
-      <c r="B595" t="s">
-        <v>8</v>
-      </c>
-      <c r="C595" t="s">
-        <v>83</v>
-      </c>
-      <c r="D595" t="s">
-        <v>10</v>
-      </c>
-      <c r="E595" t="s">
-        <v>11</v>
-      </c>
-      <c r="F595" t="s">
-        <v>663</v>
-      </c>
-      <c r="G595" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="s">
-        <v>7</v>
-      </c>
-      <c r="B596" t="s">
-        <v>8</v>
-      </c>
-      <c r="C596" t="s">
-        <v>83</v>
-      </c>
-      <c r="D596" t="s">
-        <v>10</v>
-      </c>
-      <c r="E596" t="s">
-        <v>11</v>
-      </c>
-      <c r="F596" t="s">
-        <v>664</v>
-      </c>
-      <c r="G596" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="s">
-        <v>7</v>
-      </c>
-      <c r="B597" t="s">
-        <v>8</v>
-      </c>
-      <c r="C597" t="s">
-        <v>83</v>
-      </c>
-      <c r="D597" t="s">
-        <v>10</v>
-      </c>
-      <c r="E597" t="s">
-        <v>11</v>
-      </c>
-      <c r="F597" t="s">
-        <v>665</v>
-      </c>
-      <c r="G597" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="s">
-        <v>7</v>
-      </c>
-      <c r="B598" t="s">
-        <v>8</v>
-      </c>
-      <c r="C598" t="s">
-        <v>83</v>
-      </c>
-      <c r="D598" t="s">
-        <v>10</v>
-      </c>
-      <c r="E598" t="s">
-        <v>11</v>
-      </c>
-      <c r="F598" t="s">
-        <v>666</v>
-      </c>
-      <c r="G598" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="s">
-        <v>7</v>
-      </c>
-      <c r="B599" t="s">
-        <v>8</v>
-      </c>
-      <c r="C599" t="s">
-        <v>83</v>
-      </c>
-      <c r="D599" t="s">
-        <v>10</v>
-      </c>
-      <c r="E599" t="s">
-        <v>11</v>
-      </c>
-      <c r="F599" t="s">
-        <v>667</v>
-      </c>
-      <c r="G599" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="s">
-        <v>7</v>
-      </c>
-      <c r="B600" t="s">
-        <v>8</v>
-      </c>
-      <c r="C600" t="s">
-        <v>83</v>
-      </c>
-      <c r="D600" t="s">
-        <v>10</v>
-      </c>
-      <c r="E600" t="s">
-        <v>11</v>
-      </c>
-      <c r="F600" t="s">
-        <v>668</v>
-      </c>
-      <c r="G600" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="s">
-        <v>7</v>
-      </c>
-      <c r="B601" t="s">
-        <v>8</v>
-      </c>
-      <c r="C601" t="s">
-        <v>83</v>
-      </c>
-      <c r="D601" t="s">
-        <v>10</v>
-      </c>
-      <c r="E601" t="s">
-        <v>11</v>
-      </c>
-      <c r="F601" t="s">
-        <v>669</v>
-      </c>
-      <c r="G601" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="s">
-        <v>7</v>
-      </c>
-      <c r="B602" t="s">
-        <v>8</v>
-      </c>
-      <c r="C602" t="s">
-        <v>83</v>
-      </c>
-      <c r="D602" t="s">
-        <v>10</v>
-      </c>
-      <c r="E602" t="s">
-        <v>11</v>
-      </c>
-      <c r="F602" t="s">
-        <v>670</v>
-      </c>
-      <c r="G602" t="s">
         <v>13</v>
       </c>
     </row>
